--- a/biology/Zoologie/Badumna_longinqua/Badumna_longinqua.xlsx
+++ b/biology/Zoologie/Badumna_longinqua/Badumna_longinqua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Badumna longinqua est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badumna longinqua est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire d'Australie[1].
-Elle a été introduite en Nouvelle-Zélande, au Japon, en Afrique du Sud, en Allemagne, en Grande-Bretagne, aux États-Unis, au Mexique, au Brésil et en Uruguay[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire d'Australie.
+Elle a été introduite en Nouvelle-Zélande, au Japon, en Afrique du Sud, en Allemagne, en Grande-Bretagne, aux États-Unis, au Mexique, au Brésil et en Uruguay,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 11 mm et la femelle 15 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 11 mm et la femelle 15 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius longinquus par L. Koch en 1867. Elle est placée dans le genre Badumna par Simon en 1899[4].
-Amaurobius senilis[5], Amaurobius chalybeius[5], Amaurobius silvanus[5], Amaurobius martius[4], Badumna subfasciata[4], Ixeuticus helsoni[6] et Hesperauximus sternitzkii[7] ont été placées en synonymie par Lehtinen en 1967[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius longinquus par L. Koch en 1867. Elle est placée dans le genre Badumna par Simon en 1899.
+Amaurobius senilis, Amaurobius chalybeius, Amaurobius silvanus, Amaurobius martius, Badumna subfasciata, Ixeuticus helsoni et Hesperauximus sternitzkii ont été placées en synonymie par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1867 : « Beschreibungen neuer Arachniden und Myriapoden. II. » Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien , vol. 17, p. 173-250 (texte intégral).</t>
         </is>
